--- a/Cash Book/New Microsoft Excel Worksheet.xlsx
+++ b/Cash Book/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF765785-4B9A-407E-ABF0-D9F692F2BC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661EB3F6-4736-4804-8CC2-D68318083F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -456,22 +456,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -758,7 +758,7 @@
   <dimension ref="E2:N62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,24 +777,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="5:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E5" s="4" t="s">
@@ -901,49 +901,49 @@
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="5">
         <f>SUM(H6:H14)</f>
         <v>1550000</v>
       </c>
     </row>
     <row r="21" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="K21" s="21" t="s">
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="K21" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
     </row>
     <row r="22" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
     </row>
     <row r="23" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
     </row>
     <row r="24" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E24" s="4" t="s">
@@ -1716,43 +1716,43 @@
       <c r="N60" s="17"/>
     </row>
     <row r="61" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="20">
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="24">
         <f>SUM(H25:H60)</f>
         <v>336798</v>
       </c>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="20">
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="24">
         <f>SUM(N25:N60)</f>
         <v>471925</v>
       </c>
     </row>
     <row r="62" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="20"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="20"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="24"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="K21:N23"/>
+    <mergeCell ref="K61:M62"/>
+    <mergeCell ref="N61:N62"/>
     <mergeCell ref="E2:H4"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="E21:H23"/>
     <mergeCell ref="E61:G62"/>
     <mergeCell ref="H61:H62"/>
-    <mergeCell ref="K21:N23"/>
-    <mergeCell ref="K61:M62"/>
-    <mergeCell ref="N61:N62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Cash Book/New Microsoft Excel Worksheet.xlsx
+++ b/Cash Book/New Microsoft Excel Worksheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661EB3F6-4736-4804-8CC2-D68318083F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45966AC5-0FCE-4715-A693-FF516BA177BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,6 +459,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -466,12 +472,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E2:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L15" sqref="L14:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,11 +901,11 @@
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="5">
         <f>SUM(H6:H14)</f>
         <v>1550000</v>
@@ -1716,32 +1716,32 @@
       <c r="N60" s="17"/>
     </row>
     <row r="61" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E61" s="23" t="s">
+      <c r="E61" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="24">
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="21">
         <f>SUM(H25:H60)</f>
         <v>336798</v>
       </c>
-      <c r="K61" s="23"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="23"/>
-      <c r="N61" s="24">
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="21">
         <f>SUM(N25:N60)</f>
         <v>471925</v>
       </c>
     </row>
     <row r="62" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="24"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="23"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="24"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="21"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="8">
